--- a/stats/stats/priority_actor_distance.xlsx
+++ b/stats/stats/priority_actor_distance.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,67 +390,125 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="C2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2039</v>
+        <v>2531.02712</v>
       </c>
       <c r="C3" t="n">
-        <v>2129</v>
+        <v>7199.153020000001</v>
       </c>
       <c r="D3" t="n">
-        <v>1960</v>
+        <v>2569.80542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>8310,4</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10018,7</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7957,8</t>
-        </is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1668.046144546539</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5064.710370135844</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1652.873757397159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>freq</t>
+          <t>min</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1189</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>928.6500000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2037.375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1020.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2650.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7392</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2690.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4081.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12073.85</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4010.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5144.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14830.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5157.4</v>
       </c>
     </row>
   </sheetData>
